--- a/output_extracted_info.xlsx
+++ b/output_extracted_info.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="109">
   <si>
     <t>Event Name</t>
   </si>
@@ -30,361 +30,325 @@
     <t>Date</t>
   </si>
   <si>
-    <t>ACC SH Approval</t>
+    <t>EC Clearance</t>
+  </si>
+  <si>
+    <t>EC Filed (Simplified)</t>
+  </si>
+  <si>
+    <t>HSR Expired</t>
+  </si>
+  <si>
+    <t>China Clearance</t>
+  </si>
+  <si>
+    <t>Japan Filed</t>
+  </si>
+  <si>
+    <t>South Korea Filed</t>
+  </si>
+  <si>
+    <t>China Filed (Simplified)</t>
+  </si>
+  <si>
+    <t>HSR Refiled</t>
+  </si>
+  <si>
+    <t>HSR Filed</t>
+  </si>
+  <si>
+    <t>AAWW SH Approval</t>
+  </si>
+  <si>
+    <t>Definitive Filed</t>
+  </si>
+  <si>
+    <t>Preliminary Proxy Filed</t>
+  </si>
+  <si>
+    <t>11/01/2023</t>
+  </si>
+  <si>
+    <t>09/12/2022</t>
+  </si>
+  <si>
+    <t>14/10/2022</t>
+  </si>
+  <si>
+    <t>13/10/2022</t>
+  </si>
+  <si>
+    <t>30/09/2022</t>
+  </si>
+  <si>
+    <t>26/09/2022</t>
+  </si>
+  <si>
+    <t>16/09/2022</t>
+  </si>
+  <si>
+    <t>14/09/2022</t>
+  </si>
+  <si>
+    <t>12/08/2022</t>
+  </si>
+  <si>
+    <t>29/11/2022</t>
+  </si>
+  <si>
+    <t>19/10/2022</t>
+  </si>
+  <si>
+    <t>07/10/2022</t>
+  </si>
+  <si>
+    <t>Austria Clearance</t>
+  </si>
+  <si>
+    <t>Germany Clearance</t>
+  </si>
+  <si>
+    <t>Japan Clearance</t>
+  </si>
+  <si>
+    <t>Germany Filed</t>
+  </si>
+  <si>
+    <t>Austria Filed</t>
+  </si>
+  <si>
+    <t>16/12/2022</t>
+  </si>
+  <si>
+    <t>15/12/2022</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <t>07/12/2022</t>
+  </si>
+  <si>
+    <t>28/11/2022</t>
+  </si>
+  <si>
+    <t>18/11/2022</t>
+  </si>
+  <si>
+    <t>07/11/2022</t>
+  </si>
+  <si>
+    <t>China Clearance (Formal)</t>
+  </si>
+  <si>
+    <t>China Clearance (per CSRC)</t>
+  </si>
+  <si>
+    <t>Germany Refiled</t>
+  </si>
+  <si>
+    <t>ACIA SH Approval</t>
+  </si>
+  <si>
+    <t>HSR File By</t>
   </si>
   <si>
     <t>Walk Date</t>
   </si>
   <si>
-    <t>Definitive Filed</t>
+    <t>DMA Terminated (by ACIA)</t>
+  </si>
+  <si>
+    <t>19/01/2021</t>
+  </si>
+  <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>11/11/2019</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
+  </si>
+  <si>
+    <t>26/09/2019</t>
+  </si>
+  <si>
+    <t>06/09/2019</t>
+  </si>
+  <si>
+    <t>03/09/2019</t>
+  </si>
+  <si>
+    <t>05/08/2019</t>
+  </si>
+  <si>
+    <t>29/07/2019</t>
+  </si>
+  <si>
+    <t>14/06/2021</t>
+  </si>
+  <si>
+    <t>08/01/2021</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>Certified Compliance</t>
+  </si>
+  <si>
+    <t>Second Request Issued (ETC)</t>
+  </si>
+  <si>
+    <t>Amendment 3 Filed</t>
+  </si>
+  <si>
+    <t>Amendment 2 Filed</t>
+  </si>
+  <si>
+    <t>Amendment 1 Filed</t>
+  </si>
+  <si>
+    <t>Preliminary Information Statement Filed</t>
+  </si>
+  <si>
+    <t>ACI SH Approval (Written Consent)</t>
+  </si>
+  <si>
+    <t>KR Earnings Call (10 AM ET)</t>
+  </si>
+  <si>
+    <t>WA Supreme Court TRO Hearing</t>
+  </si>
+  <si>
+    <t>WA TRO Hearing</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>05/12/2022</t>
+  </si>
+  <si>
+    <t>03/10/2022</t>
+  </si>
+  <si>
+    <t>05/04/2023</t>
+  </si>
+  <si>
+    <t>14/03/2023</t>
+  </si>
+  <si>
+    <t>24/01/2023</t>
+  </si>
+  <si>
+    <t>02/12/2022</t>
+  </si>
+  <si>
+    <t>21/04/2023</t>
+  </si>
+  <si>
+    <t>30/11/2022</t>
+  </si>
+  <si>
+    <t>17/01/2023</t>
+  </si>
+  <si>
+    <t>AF SH Approval</t>
+  </si>
+  <si>
+    <t>STL SH Approval</t>
+  </si>
+  <si>
+    <t>Preliminary S-4 Filed</t>
+  </si>
+  <si>
+    <t>Fed Comment Period Expiration</t>
+  </si>
+  <si>
+    <t>Fed Approval</t>
   </si>
   <si>
     <t>Expected Close</t>
   </si>
   <si>
-    <t>Preliminary Proxy Filed</t>
-  </si>
-  <si>
-    <t>08/04/2022</t>
-  </si>
-  <si>
-    <t>10/18/2022</t>
-  </si>
-  <si>
-    <t>06/16/2022</t>
-  </si>
-  <si>
-    <t>08/09/2022</t>
-  </si>
-  <si>
-    <t>05/10/2022</t>
-  </si>
-  <si>
-    <t>HSR Consent Decree</t>
-  </si>
-  <si>
-    <t>Second Request Issued (DOJ)</t>
-  </si>
-  <si>
-    <t>HSR Refiled</t>
-  </si>
-  <si>
-    <t>HSR Filed</t>
-  </si>
-  <si>
-    <t>ADSW SH Approval</t>
-  </si>
-  <si>
-    <t>ADSW Record Date</t>
-  </si>
-  <si>
-    <t>Extended Walk Date</t>
-  </si>
-  <si>
-    <t>WM Earnings Call (10 AM ET)</t>
-  </si>
-  <si>
-    <t>WM Deal Call (10 AM ET)</t>
-  </si>
-  <si>
-    <t>10/23/2020</t>
-  </si>
-  <si>
-    <t>07/12/2019</t>
-  </si>
-  <si>
-    <t>06/12/2019</t>
-  </si>
-  <si>
-    <t>05/09/2019</t>
-  </si>
-  <si>
-    <t>08/25/2020</t>
-  </si>
-  <si>
-    <t>07/24/2020</t>
-  </si>
-  <si>
-    <t>07/23/2020</t>
-  </si>
-  <si>
-    <t>07/06/2020</t>
-  </si>
-  <si>
-    <t>06/28/2020</t>
-  </si>
-  <si>
-    <t>05/23/2019</t>
-  </si>
-  <si>
-    <t>05/10/2019</t>
-  </si>
-  <si>
-    <t>11/30/2020</t>
-  </si>
-  <si>
-    <t>11/02/2020</t>
-  </si>
-  <si>
-    <t>09/30/2020</t>
-  </si>
-  <si>
-    <t>04/14/2020</t>
-  </si>
-  <si>
-    <t>04/25/2019</t>
-  </si>
-  <si>
-    <t>EC Clearance</t>
-  </si>
-  <si>
-    <t>EC Filed (Simplified)</t>
-  </si>
-  <si>
-    <t>HSR Expired</t>
-  </si>
-  <si>
-    <t>China Clearance</t>
-  </si>
-  <si>
-    <t>Japan Filed</t>
-  </si>
-  <si>
-    <t>South Korea Filed</t>
-  </si>
-  <si>
-    <t>China Filed (Simplified)</t>
-  </si>
-  <si>
-    <t>AAWW SH Approval</t>
-  </si>
-  <si>
-    <t>Expected Close Walk Date</t>
+    <t>OCC Approval</t>
+  </si>
+  <si>
+    <t>Fed Filed</t>
+  </si>
+  <si>
+    <t>Regulatory File By</t>
+  </si>
+  <si>
+    <t>13/06/2017</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>21/04/2017</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>19/05/2017</t>
+  </si>
+  <si>
+    <t>31/06/2018</t>
+  </si>
+  <si>
+    <t>30/08/2017</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>16/08/2017</t>
+  </si>
+  <si>
+    <t>19/04/2017</t>
+  </si>
+  <si>
+    <t>17/04/2017</t>
+  </si>
+  <si>
+    <t>China Comments By</t>
+  </si>
+  <si>
+    <t>China Filed</t>
+  </si>
+  <si>
+    <t>HSR Expired (Approximate)</t>
+  </si>
+  <si>
+    <t>China File By</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
   </si>
   <si>
     <t>01/11/2023</t>
   </si>
   <si>
-    <t>12/09/2022</t>
-  </si>
-  <si>
-    <t>10/14/2022</t>
-  </si>
-  <si>
-    <t>10/13/2022</t>
-  </si>
-  <si>
-    <t>09/30/2022</t>
-  </si>
-  <si>
-    <t>09/26/2022</t>
-  </si>
-  <si>
-    <t>09/16/2022</t>
-  </si>
-  <si>
-    <t>09/14/2022</t>
-  </si>
-  <si>
-    <t>08/12/2022</t>
-  </si>
-  <si>
-    <t>11/29/2022</t>
-  </si>
-  <si>
-    <t>10/19/2022</t>
-  </si>
-  <si>
-    <t>10/07/2022</t>
-  </si>
-  <si>
-    <t>03/17/2023</t>
-  </si>
-  <si>
-    <t>03/04/2023</t>
-  </si>
-  <si>
-    <t>China Clearance (Formal)</t>
-  </si>
-  <si>
-    <t>China Clearance (per CSRC)</t>
-  </si>
-  <si>
-    <t>Germany Clearance</t>
-  </si>
-  <si>
-    <t>Germany Refiled</t>
-  </si>
-  <si>
-    <t>ACIA SH Approval</t>
-  </si>
-  <si>
-    <t>Austria Clearance</t>
-  </si>
-  <si>
-    <t>Austria Filed</t>
-  </si>
-  <si>
-    <t>Germany Filed</t>
-  </si>
-  <si>
-    <t>HSR File By</t>
-  </si>
-  <si>
-    <t>DMA Terminated (by ACIA)</t>
-  </si>
-  <si>
-    <t>01/19/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>11/11/2019</t>
-  </si>
-  <si>
-    <t>10/11/2019</t>
-  </si>
-  <si>
-    <t>09/26/2019</t>
-  </si>
-  <si>
-    <t>09/06/2019</t>
-  </si>
-  <si>
-    <t>09/03/2019</t>
-  </si>
-  <si>
-    <t>08/05/2019</t>
-  </si>
-  <si>
-    <t>07/29/2019</t>
-  </si>
-  <si>
-    <t>06/14/2021</t>
-  </si>
-  <si>
-    <t>01/08/2021</t>
-  </si>
-  <si>
-    <t>07/08/2020</t>
-  </si>
-  <si>
-    <t>Certified Compliance</t>
-  </si>
-  <si>
-    <t>Second Request Issued (ETC)</t>
-  </si>
-  <si>
-    <t>Amendment 3 Filed</t>
-  </si>
-  <si>
-    <t>KR Earnings Call (10 AM ET)</t>
-  </si>
-  <si>
-    <t>Amendment 2 Filed</t>
-  </si>
-  <si>
-    <t>WA Supreme Court TRO Hearing</t>
-  </si>
-  <si>
-    <t>Amendment 1 Filed</t>
-  </si>
-  <si>
-    <t>Preliminary Information Statement Filed</t>
-  </si>
-  <si>
-    <t>ACI SH Approval (Written Consent)</t>
-  </si>
-  <si>
-    <t>11/15/2023</t>
-  </si>
-  <si>
-    <t>04/21/2023</t>
-  </si>
-  <si>
-    <t>01/13/2024</t>
-  </si>
-  <si>
-    <t>12/05/2022</t>
-  </si>
-  <si>
-    <t>04/05/2023</t>
-  </si>
-  <si>
-    <t>11/30/2022</t>
-  </si>
-  <si>
-    <t>10/03/2022</t>
-  </si>
-  <si>
-    <t>03/14/2023</t>
-  </si>
-  <si>
-    <t>01/17/2023</t>
-  </si>
-  <si>
-    <t>01/24/2023</t>
-  </si>
-  <si>
-    <t>12/02/2022</t>
-  </si>
-  <si>
-    <t>AF SH Approval</t>
-  </si>
-  <si>
-    <t>STL SH Approval</t>
-  </si>
-  <si>
-    <t>Preliminary S-4 Filed</t>
-  </si>
-  <si>
-    <t>Fed Approval</t>
-  </si>
-  <si>
-    <t>OCC Approval</t>
-  </si>
-  <si>
-    <t>Fed Comment Period Expiration</t>
-  </si>
-  <si>
-    <t>Fed Filed</t>
-  </si>
-  <si>
-    <t>Regulatory File By</t>
-  </si>
-  <si>
-    <t>06/13/2017</t>
-  </si>
-  <si>
-    <t>05/01/2017</t>
-  </si>
-  <si>
-    <t>04/21/2017</t>
-  </si>
-  <si>
-    <t>04/05/2017</t>
-  </si>
-  <si>
-    <t>06/31/2018</t>
-  </si>
-  <si>
-    <t>10/02/2017</t>
-  </si>
-  <si>
-    <t>08/30/2017</t>
-  </si>
-  <si>
-    <t>08/16/2017</t>
-  </si>
-  <si>
-    <t>05/19/2017</t>
-  </si>
-  <si>
-    <t>04/19/2017</t>
-  </si>
-  <si>
-    <t>04/17/2017</t>
+    <t>23/10/2023</t>
+  </si>
+  <si>
+    <t>19/10/2023</t>
+  </si>
+  <si>
+    <t>12/10/2023</t>
+  </si>
+  <si>
+    <t>10/10/2023</t>
+  </si>
+  <si>
+    <t>19/09/2023</t>
+  </si>
+  <si>
+    <t>13/09/2023</t>
   </si>
 </sst>
 </file>
@@ -468,92 +432,6 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ACCx.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1276350" y="0"/>
-          <a:ext cx="12525375" cy="2066925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="ADSW.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1276350" y="0"/>
-          <a:ext cx="12906375" cy="2667000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -586,7 +464,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ABMD.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="0"/>
+          <a:ext cx="12211050" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -629,7 +550,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -672,7 +593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -704,6 +625,49 @@
         <a:xfrm>
           <a:off x="1276350" y="0"/>
           <a:ext cx="12839700" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="ABCM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="0"/>
+          <a:ext cx="12401550" cy="3495675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,7 +976,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1031,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1039,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1047,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1055,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1063,7 +1051,63 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1072,9 +1116,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1090,281 +1134,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1386,106 +1220,106 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1512,98 +1346,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1630,98 +1464,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1732,12 +1566,102 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>